--- a/test/excel.xlsx
+++ b/test/excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="blank" sheetId="2" r:id="rId2"/>
+    <sheet name="blank data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,33 +21,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        d     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  f  f   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  反反复复烦烦烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,72 +394,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="56.4140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44451</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" t="e">
+        <f>if</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="E11" t="e">
+        <f>B11+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -449,72 +475,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="56.4140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test/excel.xlsx
+++ b/test/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,16 +396,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1</v>
       </c>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -435,24 +435,29 @@
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>44451</v>
+        <v>44451.508333333331</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E10" t="e">
         <f>if</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -461,7 +466,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -479,7 +484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -490,13 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
